--- a/src/excel_downloads/Testflight Calendar with Results FL.xlsx
+++ b/src/excel_downloads/Testflight Calendar with Results FL.xlsx
@@ -491,10 +491,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -557,10 +555,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K3" t="n">
+        <v>2</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -627,10 +623,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K4" t="n">
+        <v>3</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -693,10 +687,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K5" t="n">
+        <v>4</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -755,10 +747,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K6" t="n">
+        <v>5</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -819,10 +809,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K7" t="n">
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -885,10 +873,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K8" t="n">
+        <v>6</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -955,10 +941,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K9" t="n">
+        <v>7</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1025,10 +1009,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K10" t="n">
+        <v>8</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1093,10 +1075,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K11" t="n">
+        <v>9</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1159,10 +1139,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K12" t="n">
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1229,10 +1207,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K13" t="n">
+        <v>10</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1299,10 +1275,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K14" t="n">
+        <v>11</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1365,10 +1339,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K15" t="n">
+        <v>12</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1427,10 +1399,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K16" t="n">
+        <v>13</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1489,10 +1459,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K17" t="n">
+        <v>14</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1553,10 +1521,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K18" t="n">
+        <v>1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1619,10 +1585,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K19" t="n">
+        <v>15</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1691,10 +1655,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K20" t="n">
+        <v>16</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1761,10 +1723,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K21" t="n">
+        <v>17</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1827,10 +1787,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K22" t="n">
+        <v>18</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1895,10 +1853,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K23" t="n">
+        <v>19</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1961,10 +1917,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K24" t="n">
+        <v>1</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2027,10 +1981,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K25" t="n">
+        <v>20</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2093,10 +2045,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K26" t="n">
+        <v>21</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2155,10 +2105,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K27" t="n">
+        <v>22</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2221,10 +2169,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K28" t="n">
+        <v>23</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2291,10 +2237,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K29" t="n">
+        <v>24</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2355,10 +2299,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K30" t="n">
+        <v>1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2421,10 +2363,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K31" t="n">
+        <v>25</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2487,10 +2427,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K32" t="n">
+        <v>26</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2555,10 +2493,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K33" t="n">
+        <v>27</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2621,10 +2557,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K34" t="n">
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2693,10 +2627,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K35" t="n">
+        <v>28</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2767,10 +2699,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K36" t="n">
+        <v>29</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2833,10 +2763,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K37" t="n">
+        <v>30</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2895,10 +2823,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K38" t="n">
+        <v>31</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2957,10 +2883,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K39" t="n">
+        <v>32</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3021,10 +2945,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K40" t="n">
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3087,10 +3009,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K41" t="n">
+        <v>33</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3153,10 +3073,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K42" t="n">
+        <v>34</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3221,10 +3139,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K43" t="n">
+        <v>35</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3291,10 +3207,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K44" t="n">
+        <v>1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3361,10 +3275,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K45" t="n">
+        <v>36</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3431,10 +3343,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K46" t="n">
+        <v>37</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3497,10 +3407,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K47" t="n">
+        <v>38</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3567,10 +3475,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K48" t="n">
+        <v>39</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3637,10 +3543,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K49" t="n">
+        <v>40</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3701,10 +3605,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K50" t="n">
+        <v>41</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3769,10 +3671,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K51" t="n">
+        <v>42</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3841,10 +3741,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K52" t="n">
+        <v>43</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3911,10 +3809,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K53" t="n">
+        <v>44</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3977,10 +3873,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K54" t="n">
+        <v>45</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -4043,10 +3937,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K55" t="n">
+        <v>46</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4107,10 +3999,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K56" t="n">
+        <v>47</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4177,10 +4067,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K57" t="n">
+        <v>48</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4247,10 +4135,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K58" t="n">
+        <v>49</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -4315,10 +4201,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K59" t="n">
+        <v>50</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4381,10 +4265,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K60" t="n">
+        <v>51</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4447,10 +4329,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K61" t="n">
+        <v>52</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4517,10 +4397,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K62" t="n">
+        <v>53</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4583,10 +4461,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K63" t="n">
+        <v>54</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4653,10 +4529,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K64" t="n">
+        <v>55</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -4723,10 +4597,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K65" t="n">
+        <v>56</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -4787,10 +4659,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K66" t="n">
+        <v>57</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4849,10 +4719,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K67" t="n">
+        <v>58</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4915,10 +4783,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K68" t="n">
+        <v>59</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4981,10 +4847,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K69" t="n">
+        <v>60</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -5051,10 +4915,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K70" t="n">
+        <v>61</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -5123,10 +4985,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K71" t="n">
+        <v>62</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -5189,10 +5049,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K72" t="n">
+        <v>63</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5255,10 +5113,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K73" t="n">
+        <v>64</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5325,10 +5181,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K74" t="n">
+        <v>65</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -5391,10 +5245,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K75" t="n">
+        <v>66</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -5461,10 +5313,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K76" t="n">
+        <v>67</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5531,10 +5381,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K77" t="n">
+        <v>68</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -5595,10 +5443,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K78" t="n">
+        <v>69</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -5657,10 +5503,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K79" t="n">
+        <v>70</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -5723,10 +5567,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K80" t="n">
+        <v>71</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -5793,10 +5635,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K81" t="n">
+        <v>72</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -5865,10 +5705,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K82" t="n">
+        <v>73</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -5935,10 +5773,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K83" t="n">
+        <v>74</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -6011,10 +5847,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K84" t="n">
+        <v>75</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -6081,10 +5915,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K85" t="n">
+        <v>76</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -6151,10 +5983,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K86" t="n">
+        <v>77</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6219,10 +6049,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K87" t="n">
+        <v>78</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -6289,10 +6117,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K88" t="n">
+        <v>79</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -6359,10 +6185,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K89" t="n">
+        <v>80</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -6423,10 +6247,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K90" t="n">
+        <v>81</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -6485,10 +6307,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K91" t="n">
+        <v>82</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -6551,10 +6371,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K92" t="n">
+        <v>83</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -6617,10 +6435,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K93" t="n">
+        <v>84</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -6685,10 +6501,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K94" t="n">
+        <v>85</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -6755,10 +6569,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K95" t="n">
+        <v>86</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -6829,10 +6641,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K96" t="n">
+        <v>87</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -6905,10 +6715,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K97" t="n">
+        <v>75</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -6975,10 +6783,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K98" t="n">
+        <v>88</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -7045,10 +6851,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K99" t="n">
+        <v>89</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -7113,10 +6917,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K100" t="n">
+        <v>90</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -7183,10 +6985,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K101" t="n">
+        <v>91</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -7253,10 +7053,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K102" t="n">
+        <v>92</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -7317,10 +7115,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K103" t="n">
+        <v>93</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -7387,10 +7183,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K104" t="n">
+        <v>94</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -7455,10 +7249,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K105" t="n">
+        <v>95</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -7523,10 +7315,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K106" t="n">
+        <v>96</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -7593,10 +7383,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K107" t="n">
+        <v>97</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -7667,10 +7455,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K108" t="n">
+        <v>98</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -7737,10 +7523,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K109" t="n">
+        <v>99</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -7805,10 +7589,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K110" t="n">
+        <v>75</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -7879,10 +7661,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K111" t="n">
+        <v>100</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -7949,10 +7729,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K112" t="n">
+        <v>101</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -8017,10 +7795,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K113" t="n">
+        <v>102</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -8083,10 +7859,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K114" t="n">
+        <v>103</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -8147,10 +7921,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K115" t="n">
+        <v>104</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -8207,10 +7979,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K116" t="n">
+        <v>105</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -8277,10 +8047,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K117" t="n">
+        <v>106</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -8347,10 +8115,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K118" t="n">
+        <v>107</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -8415,10 +8181,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K119" t="n">
+        <v>108</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -8485,10 +8249,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K120" t="n">
+        <v>109</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -8559,10 +8321,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K121" t="n">
+        <v>110</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -8629,10 +8389,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K122" t="n">
+        <v>111</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -8705,10 +8463,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K123" t="n">
+        <v>75</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -8779,10 +8535,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K124" t="n">
+        <v>112</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -8847,10 +8601,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K125" t="n">
+        <v>113</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -8919,10 +8671,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K126" t="n">
+        <v>114</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -8989,10 +8739,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K127" t="n">
+        <v>115</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -9053,10 +8801,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K128" t="n">
+        <v>116</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -9123,10 +8869,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K129" t="n">
+        <v>117</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -9195,10 +8939,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K130" t="n">
+        <v>118</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -9265,10 +9007,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K131" t="n">
+        <v>119</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -9339,10 +9079,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K132" t="n">
+        <v>120</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -9407,10 +9145,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K133" t="n">
+        <v>121</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -9477,10 +9213,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K134" t="n">
+        <v>122</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -9545,10 +9279,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K135" t="n">
+        <v>123</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -9621,10 +9353,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K136" t="n">
+        <v>75</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -9699,10 +9429,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K137" t="n">
+        <v>114</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -9771,10 +9499,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K138" t="n">
+        <v>124</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -9843,10 +9569,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K139" t="n">
+        <v>125</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -9913,10 +9637,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K140" t="n">
+        <v>126</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -9977,10 +9699,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K141" t="n">
+        <v>127</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -10047,10 +9767,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K142" t="n">
+        <v>128</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -10115,10 +9833,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K143" t="n">
+        <v>129</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -10183,10 +9899,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K144" t="n">
+        <v>130</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -10253,10 +9967,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K145" t="n">
+        <v>131</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -10327,10 +10039,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K146" t="n">
+        <v>132</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -10397,10 +10107,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K147" t="n">
+        <v>133</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -10463,10 +10171,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K148" t="n">
+        <v>134</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -10531,10 +10237,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K149" t="n">
+        <v>135</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -10601,10 +10305,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K150" t="n">
+        <v>136</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -10669,10 +10371,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K151" t="n">
+        <v>137</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -10739,10 +10439,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K152" t="n">
+        <v>138</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -10811,10 +10509,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K153" t="n">
+        <v>139</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -10881,10 +10577,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K154" t="n">
+        <v>140</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -10945,10 +10639,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K155" t="n">
+        <v>141</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -11007,10 +10699,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K156" t="n">
+        <v>142</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -11077,10 +10767,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K157" t="n">
+        <v>143</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -11145,10 +10833,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K158" t="n">
+        <v>144</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -11211,10 +10897,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K159" t="n">
+        <v>145</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -11279,10 +10963,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K160" t="n">
+        <v>146</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -11349,10 +11031,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K161" t="n">
+        <v>147</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -11423,10 +11103,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K162" t="n">
+        <v>148</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -11493,10 +11171,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K163" t="n">
+        <v>149</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -11559,10 +11235,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K164" t="n">
+        <v>150</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -11629,10 +11303,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K165" t="n">
+        <v>151</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -11699,10 +11371,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K166" t="n">
+        <v>152</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -11767,10 +11437,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K167" t="n">
+        <v>153</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -11837,10 +11505,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K168" t="n">
+        <v>154</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -11911,10 +11577,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K169" t="n">
+        <v>155</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -11981,10 +11645,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K170" t="n">
+        <v>156</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -12045,10 +11707,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K171" t="n">
+        <v>157</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -12107,10 +11767,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K172" t="n">
+        <v>158</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -12173,10 +11831,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K173" t="n">
+        <v>159</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -12243,10 +11899,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K174" t="n">
+        <v>160</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -12315,10 +11969,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K175" t="n">
+        <v>161</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -12381,10 +12033,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K176" t="n">
+        <v>162</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -12451,10 +12101,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K177" t="n">
+        <v>163</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -12521,10 +12169,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K178" t="n">
+        <v>164</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -12591,10 +12237,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K179" t="n">
+        <v>165</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -12659,10 +12303,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K180" t="n">
+        <v>166</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -12729,10 +12371,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K181" t="n">
+        <v>167</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -12799,10 +12439,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K182" t="n">
+        <v>168</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -12863,10 +12501,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K183" t="n">
+        <v>162</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -12929,10 +12565,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K184" t="n">
+        <v>169</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -12995,10 +12629,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K185" t="n">
+        <v>170</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -13061,10 +12693,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K186" t="n">
+        <v>171</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -13131,10 +12761,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K187" t="n">
+        <v>172</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -13203,10 +12831,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K188" t="n">
+        <v>173</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -13269,10 +12895,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K189" t="n">
+        <v>162</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -13341,10 +12965,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K190" t="n">
+        <v>174</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -13411,10 +13033,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K191" t="n">
+        <v>175</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -13477,10 +13097,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K192" t="n">
+        <v>176</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -13547,10 +13165,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K193" t="n">
+        <v>177</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -13617,10 +13233,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K194" t="n">
+        <v>178</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -13681,10 +13295,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K195" t="n">
+        <v>162</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -13747,10 +13359,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K196" t="n">
+        <v>179</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -13817,10 +13427,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K197" t="n">
+        <v>180</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -13887,10 +13495,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K198" t="n">
+        <v>181</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -13957,10 +13563,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K199" t="n">
+        <v>182</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -14029,10 +13633,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K200" t="n">
+        <v>183</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -14099,10 +13701,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K201" t="n">
+        <v>184</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -14169,10 +13769,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K202" t="n">
+        <v>162</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -14241,10 +13839,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K203" t="n">
+        <v>174</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -14315,10 +13911,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K204" t="n">
+        <v>185</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -14389,10 +13983,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K205" t="n">
+        <v>186</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -14455,10 +14047,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K206" t="n">
+        <v>187</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -14527,10 +14117,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K207" t="n">
+        <v>188</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -14599,10 +14187,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K208" t="n">
+        <v>189</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -14667,10 +14253,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K209" t="n">
+        <v>190</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -14731,10 +14315,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K210" t="n">
+        <v>162</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -14797,10 +14379,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K211" t="n">
+        <v>191</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -14867,10 +14447,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K212" t="n">
+        <v>192</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -14937,10 +14515,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K213" t="n">
+        <v>193</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -15005,10 +14581,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K214" t="n">
+        <v>194</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -15071,10 +14645,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K215" t="n">
+        <v>162</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -15137,10 +14709,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K216" t="n">
+        <v>195</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -15213,10 +14783,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K217" t="n">
+        <v>174</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -15287,10 +14855,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K218" t="n">
+        <v>196</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -15355,10 +14921,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K219" t="n">
+        <v>197</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -15425,10 +14989,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K220" t="n">
+        <v>198</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -15497,10 +15059,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K221" t="n">
+        <v>199</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -15571,10 +15131,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K222" t="n">
+        <v>200</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -15641,10 +15199,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K223" t="n">
+        <v>201</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -15705,10 +15261,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K224" t="n">
+        <v>162</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -15771,10 +15325,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K225" t="n">
+        <v>202</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -15841,10 +15393,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K226" t="n">
+        <v>203</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -15913,10 +15463,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K227" t="n">
+        <v>204</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -15983,10 +15531,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K228" t="n">
+        <v>205</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -16057,10 +15603,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K229" t="n">
+        <v>206</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -16129,10 +15673,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K230" t="n">
+        <v>162</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -16193,10 +15735,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K231" t="n">
+        <v>207</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -16269,10 +15809,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K232" t="n">
+        <v>174</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -16345,10 +15883,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K233" t="n">
+        <v>208</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -16415,10 +15951,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K234" t="n">
+        <v>209</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -16485,10 +16019,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K235" t="n">
+        <v>210</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -16557,10 +16089,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K236" t="n">
+        <v>211</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -16631,10 +16161,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K237" t="n">
+        <v>212</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -16701,10 +16229,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K238" t="n">
+        <v>213</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -16765,10 +16291,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K239" t="n">
+        <v>214</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -16831,10 +16355,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K240" t="n">
+        <v>215</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -16901,10 +16423,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K241" t="n">
+        <v>216</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -16973,10 +16493,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K242" t="n">
+        <v>217</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -17039,10 +16557,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K243" t="n">
+        <v>218</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -17101,10 +16617,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K244" t="n">
+        <v>219</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -17177,10 +16691,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K245" t="n">
+        <v>174</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -17251,10 +16763,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K246" t="n">
+        <v>220</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -17319,10 +16829,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K247" t="n">
+        <v>221</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -17395,10 +16903,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K248" t="n">
+        <v>208</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -17467,10 +16973,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K249" t="n">
+        <v>212</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -17541,10 +17045,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K250" t="n">
+        <v>222</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -17611,10 +17113,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K251" t="n">
+        <v>223</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -17675,10 +17175,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K252" t="n">
+        <v>224</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -17735,10 +17233,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K253" t="n">
+        <v>225</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -17801,10 +17297,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K254" t="n">
+        <v>226</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -17867,10 +17361,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K255" t="n">
+        <v>227</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -17935,10 +17427,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K256" t="n">
+        <v>228</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -18001,10 +17491,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K257" t="n">
+        <v>229</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -18063,10 +17551,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K258" t="n">
+        <v>230</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -18129,10 +17615,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K259" t="n">
+        <v>231</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -18205,10 +17689,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K260" t="n">
+        <v>174</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -18281,10 +17763,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K261" t="n">
+        <v>222</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -18357,10 +17837,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K262" t="n">
+        <v>212</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -18425,10 +17903,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K263" t="n">
+        <v>232</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -18489,10 +17965,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K264" t="n">
+        <v>233</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -18551,10 +18025,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K265" t="n">
+        <v>234</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -18617,10 +18089,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K266" t="n">
+        <v>235</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -18685,10 +18155,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K267" t="n">
+        <v>236</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -18755,10 +18223,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K268" t="n">
+        <v>237</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -18825,10 +18291,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K269" t="n">
+        <v>238</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -18891,10 +18355,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K270" t="n">
+        <v>239</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -18957,10 +18419,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K271" t="n">
+        <v>240</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -19021,10 +18481,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K272" t="n">
+        <v>241</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -19081,10 +18539,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K273" t="n">
+        <v>242</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -19153,10 +18609,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K274" t="n">
+        <v>243</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -19223,10 +18677,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K275" t="n">
+        <v>244</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -19289,10 +18741,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K276" t="n">
+        <v>245</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -19357,10 +18807,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K277" t="n">
+        <v>246</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -19427,10 +18875,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K278" t="n">
+        <v>247</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -19497,10 +18943,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K279" t="n">
+        <v>248</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -19563,10 +19007,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K280" t="n">
+        <v>249</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -19629,10 +19071,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K281" t="n">
+        <v>250</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -19693,10 +19133,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K282" t="n">
+        <v>251</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -19763,10 +19201,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K283" t="n">
+        <v>252</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -19833,10 +19269,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K284" t="n">
+        <v>253</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -19901,10 +19335,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K285" t="n">
+        <v>254</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -19967,10 +19399,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K286" t="n">
+        <v>255</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -20035,10 +19465,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K287" t="n">
+        <v>256</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -20105,10 +19533,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K288" t="n">
+        <v>257</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -20179,10 +19605,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K289" t="n">
+        <v>258</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -20245,10 +19669,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K290" t="n">
+        <v>259</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -20305,10 +19727,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K291" t="n">
+        <v>260</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -20375,10 +19795,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K292" t="n">
+        <v>261</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -20445,10 +19863,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K293" t="n">
+        <v>262</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -20513,10 +19929,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K294" t="n">
+        <v>263</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -20579,10 +19993,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K295" t="n">
+        <v>264</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -20645,10 +20057,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K296" t="n">
+        <v>265</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -20713,10 +20123,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K297" t="n">
+        <v>266</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -20771,10 +20179,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K298" t="n">
+        <v>267</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -20835,10 +20241,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K299" t="n">
+        <v>268</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -20903,10 +20307,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K300" t="n">
+        <v>269</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -20975,10 +20377,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K301" t="n">
+        <v>270</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -21045,10 +20445,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K302" t="n">
+        <v>271</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -21109,10 +20507,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K303" t="n">
+        <v>272</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -21175,10 +20571,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K304" t="n">
+        <v>273</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -21241,10 +20635,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K305" t="n">
+        <v>271</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -21305,10 +20697,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K306" t="n">
+        <v>274</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -21375,10 +20765,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K307" t="n">
+        <v>275</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -21445,10 +20833,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K308" t="n">
+        <v>276</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -21513,10 +20899,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K309" t="n">
+        <v>277</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -21579,10 +20963,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K310" t="n">
+        <v>278</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -21645,10 +21027,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K311" t="n">
+        <v>279</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -21715,10 +21095,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K312" t="n">
+        <v>271</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -21779,10 +21157,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K313" t="n">
+        <v>280</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -21845,10 +21221,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K314" t="n">
+        <v>281</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -21911,10 +21285,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K315" t="n">
+        <v>271</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -21975,10 +21347,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K316" t="n">
+        <v>282</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -22037,10 +21407,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K317" t="n">
+        <v>283</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -22109,10 +21477,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K318" t="n">
+        <v>284</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -22179,10 +21545,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K319" t="n">
+        <v>285</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -22245,10 +21609,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K320" t="n">
+        <v>286</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -22313,10 +21675,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K321" t="n">
+        <v>287</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -22379,10 +21739,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K322" t="n">
+        <v>288</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -22449,10 +21807,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K323" t="n">
+        <v>289</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -22519,10 +21875,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K324" t="n">
+        <v>271</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -22583,10 +21937,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K325" t="n">
+        <v>290</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -22649,10 +22001,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K326" t="n">
+        <v>291</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -22711,10 +22061,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K327" t="n">
+        <v>292</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -22773,10 +22121,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K328" t="n">
+        <v>271</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -22837,10 +22183,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K329" t="n">
+        <v>288</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -22903,10 +22247,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K330" t="n">
+        <v>293</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -22973,10 +22315,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K331" t="n">
+        <v>294</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -23043,10 +22383,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K332" t="n">
+        <v>295</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -23111,10 +22449,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K333" t="n">
+        <v>296</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -23177,10 +22513,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K334" t="n">
+        <v>288</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -23247,10 +22581,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K335" t="n">
+        <v>297</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -23317,10 +22649,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K336" t="n">
+        <v>271</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -23381,10 +22711,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K337" t="n">
+        <v>298</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -23447,10 +22775,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K338" t="n">
+        <v>299</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -23509,10 +22835,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K339" t="n">
+        <v>300</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -23571,10 +22895,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K340" t="n">
+        <v>271</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -23635,10 +22957,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K341" t="n">
+        <v>288</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -23701,10 +23021,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K342" t="n">
+        <v>301</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -23773,10 +23091,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K343" t="n">
+        <v>302</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -23843,10 +23159,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K344" t="n">
+        <v>303</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -23909,10 +23223,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K345" t="n">
+        <v>304</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -23977,10 +23289,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K346" t="n">
+        <v>305</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -24043,10 +23353,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K347" t="n">
+        <v>288</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -24113,10 +23421,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K348" t="n">
+        <v>306</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -24183,10 +23489,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K349" t="n">
+        <v>271</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -24247,10 +23551,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K350" t="n">
+        <v>307</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -24313,10 +23615,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K351" t="n">
+        <v>308</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -24375,10 +23675,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K352" t="n">
+        <v>309</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -24437,10 +23735,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K353" t="n">
+        <v>271</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -24501,10 +23797,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K354" t="n">
+        <v>288</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -24567,10 +23861,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K355" t="n">
+        <v>310</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -24637,10 +23929,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K356" t="n">
+        <v>311</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -24707,10 +23997,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K357" t="n">
+        <v>312</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -24775,10 +24063,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K358" t="n">
+        <v>313</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -24841,10 +24127,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K359" t="n">
+        <v>288</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -24917,10 +24201,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K360" t="n">
+        <v>314</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -24991,10 +24273,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K361" t="n">
+        <v>271</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -25059,10 +24339,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K362" t="n">
+        <v>315</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -25125,10 +24403,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K363" t="n">
+        <v>316</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -25187,10 +24463,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K364" t="n">
+        <v>317</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -25253,10 +24527,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K365" t="n">
+        <v>288</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -25327,10 +24599,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K366" t="n">
+        <v>318</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -25397,10 +24667,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K367" t="n">
+        <v>319</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -25467,10 +24735,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K368" t="n">
+        <v>320</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -25535,10 +24801,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K369" t="n">
+        <v>321</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -25601,10 +24865,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K370" t="n">
+        <v>288</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -25677,10 +24939,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K371" t="n">
+        <v>322</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -25751,10 +25011,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K372" t="n">
+        <v>323</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -25817,10 +25075,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K373" t="n">
+        <v>324</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -25879,10 +25135,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K374" t="n">
+        <v>325</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -25945,10 +25199,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K375" t="n">
+        <v>326</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -26015,10 +25267,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K376" t="n">
+        <v>327</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -26075,10 +25325,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K377" t="n">
+        <v>328</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -26141,10 +25389,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K378" t="n">
+        <v>329</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -26209,10 +25455,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K379" t="n">
+        <v>330</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -26281,10 +25525,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K380" t="n">
+        <v>331</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -26355,10 +25597,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K381" t="n">
+        <v>288</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -26427,10 +25667,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K382" t="n">
+        <v>332</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -26493,10 +25731,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K383" t="n">
+        <v>333</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -26555,10 +25791,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K384" t="n">
+        <v>334</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -26621,10 +25855,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K385" t="n">
+        <v>335</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -26689,10 +25921,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K386" t="n">
+        <v>336</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -26759,10 +25989,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K387" t="n">
+        <v>337</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -26829,10 +26057,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K388" t="n">
+        <v>338</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -26897,10 +26123,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K389" t="n">
+        <v>339</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -26963,10 +26187,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K390" t="n">
+        <v>340</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -27033,10 +26255,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K391" t="n">
+        <v>341</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -27107,10 +26327,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K392" t="n">
+        <v>342</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -27173,10 +26391,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K393" t="n">
+        <v>343</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -27239,10 +26455,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K394" t="n">
+        <v>344</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -27303,10 +26517,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K395" t="n">
+        <v>345</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -27373,10 +26585,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K396" t="n">
+        <v>346</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -27445,10 +26655,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K397" t="n">
+        <v>347</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -27515,10 +26723,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K398" t="n">
+        <v>348</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -27581,10 +26787,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K399" t="n">
+        <v>349</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -27649,10 +26853,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K400" t="n">
+        <v>350</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -27711,10 +26913,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K401" t="n">
+        <v>351</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -27781,10 +26981,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K402" t="n">
+        <v>352</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -27855,10 +27053,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K403" t="n">
+        <v>353</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -27921,10 +27117,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K404" t="n">
+        <v>354</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -27987,10 +27181,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K405" t="n">
+        <v>355</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -28047,10 +27239,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K406" t="n">
+        <v>356</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -28117,10 +27307,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K407" t="n">
+        <v>357</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -28187,10 +27375,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K408" t="n">
+        <v>358</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -28257,10 +27443,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K409" t="n">
+        <v>359</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -28325,10 +27509,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K410" t="n">
+        <v>360</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -28387,10 +27569,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K411" t="n">
+        <v>361</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -28457,10 +27637,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K412" t="n">
+        <v>362</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -28531,10 +27709,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K413" t="n">
+        <v>363</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -28597,10 +27773,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K414" t="n">
+        <v>364</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -28663,10 +27837,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K415" t="n">
+        <v>365</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -28727,10 +27899,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K416" t="n">
+        <v>366</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -28797,10 +27967,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K417" t="n">
+        <v>367</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -28869,10 +28037,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K418" t="n">
+        <v>368</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -28939,10 +28105,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K419" t="n">
+        <v>369</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -29005,10 +28169,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K420" t="n">
+        <v>370</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -29073,10 +28235,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K421" t="n">
+        <v>371</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -29141,10 +28301,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K422" t="n">
+        <v>372</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -29215,10 +28373,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K423" t="n">
+        <v>373</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -29289,10 +28445,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K424" t="n">
+        <v>374</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -29355,10 +28509,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K425" t="n">
+        <v>375</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -29417,10 +28569,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K426" t="n">
+        <v>376</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -29483,10 +28633,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K427" t="n">
+        <v>377</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -29549,10 +28697,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K428" t="n">
+        <v>372</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -29623,10 +28769,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K429" t="n">
+        <v>378</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -29693,10 +28837,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K430" t="n">
+        <v>379</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -29763,10 +28905,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K431" t="n">
+        <v>380</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -29831,10 +28971,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K432" t="n">
+        <v>381</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -29903,10 +29041,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K433" t="n">
+        <v>382</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -29977,10 +29113,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K434" t="n">
+        <v>372</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -30051,10 +29185,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K435" t="n">
+        <v>383</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -30117,10 +29249,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K436" t="n">
+        <v>384</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -30183,10 +29313,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K437" t="n">
+        <v>385</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -30247,10 +29375,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K438" t="n">
+        <v>386</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -30317,10 +29443,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K439" t="n">
+        <v>387</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -30387,10 +29511,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K440" t="n">
+        <v>388</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -30457,10 +29579,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K441" t="n">
+        <v>389</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -30525,10 +29645,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K442" t="n">
+        <v>390</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -30595,10 +29713,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K443" t="n">
+        <v>391</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -30661,10 +29777,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K444" t="n">
+        <v>392</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -30727,10 +29841,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K445" t="n">
+        <v>393</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -30795,10 +29907,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K446" t="n">
+        <v>394</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -30863,10 +29973,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K447" t="n">
+        <v>395</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -30925,10 +30033,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K448" t="n">
+        <v>396</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -30993,10 +30099,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K449" t="n">
+        <v>397</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -31067,10 +30171,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K450" t="n">
+        <v>398</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -31133,10 +30235,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K451" t="n">
+        <v>399</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -31199,10 +30299,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K452" t="n">
+        <v>400</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -31259,10 +30357,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K453" t="n">
+        <v>401</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -31325,10 +30421,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K454" t="n">
+        <v>402</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -31395,10 +30489,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K455" t="n">
+        <v>403</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -31465,10 +30557,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K456" t="n">
+        <v>404</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -31533,10 +30623,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K457" t="n">
+        <v>405</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -31599,10 +30687,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K458" t="n">
+        <v>406</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -31669,10 +30755,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K459" t="n">
+        <v>407</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -31743,10 +30827,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K460" t="n">
+        <v>408</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -31809,10 +30891,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K461" t="n">
+        <v>409</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -31875,10 +30955,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K462" t="n">
+        <v>410</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -31939,10 +31017,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K463" t="n">
+        <v>411</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -32009,10 +31085,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K464" t="n">
+        <v>412</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -32081,10 +31155,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K465" t="n">
+        <v>413</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -32151,10 +31223,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K466" t="n">
+        <v>414</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -32217,10 +31287,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K467" t="n">
+        <v>415</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -32285,10 +31353,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K468" t="n">
+        <v>416</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -32351,10 +31417,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K469" t="n">
+        <v>417</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -32425,10 +31489,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K470" t="n">
+        <v>418</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -32499,10 +31561,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K471" t="n">
+        <v>419</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -32565,10 +31625,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K472" t="n">
+        <v>420</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -32627,10 +31685,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K473" t="n">
+        <v>421</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -32693,10 +31749,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K474" t="n">
+        <v>422</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -32757,10 +31811,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K475" t="n">
+        <v>417</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -32831,10 +31883,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K476" t="n">
+        <v>423</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -32901,10 +31951,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K477" t="n">
+        <v>424</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -32971,10 +32019,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K478" t="n">
+        <v>425</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -33039,10 +32085,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K479" t="n">
+        <v>426</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -33105,10 +32149,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K480" t="n">
+        <v>417</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -33179,10 +32221,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K481" t="n">
+        <v>427</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -33253,10 +32293,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K482" t="n">
+        <v>428</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -33319,10 +32357,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K483" t="n">
+        <v>429</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -33381,10 +32417,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K484" t="n">
+        <v>430</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -33447,10 +32481,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K485" t="n">
+        <v>431</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -33511,10 +32543,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K486" t="n">
+        <v>417</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -33585,10 +32615,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K487" t="n">
+        <v>432</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -33657,10 +32685,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K488" t="n">
+        <v>433</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -33727,10 +32753,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K489" t="n">
+        <v>434</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -33793,10 +32817,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K490" t="n">
+        <v>435</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -33861,10 +32883,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K491" t="n">
+        <v>436</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -33927,10 +32947,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K492" t="n">
+        <v>417</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -34001,10 +33019,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K493" t="n">
+        <v>437</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -34075,10 +33091,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K494" t="n">
+        <v>438</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -34141,10 +33155,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K495" t="n">
+        <v>439</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -34203,10 +33215,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K496" t="n">
+        <v>440</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -34269,10 +33279,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K497" t="n">
+        <v>441</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -34333,10 +33341,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K498" t="n">
+        <v>417</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -34407,10 +33413,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K499" t="n">
+        <v>442</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -34477,10 +33481,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K500" t="n">
+        <v>443</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -34547,10 +33549,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K501" t="n">
+        <v>444</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -34615,10 +33615,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K502" t="n">
+        <v>445</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -34681,10 +33679,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K503" t="n">
+        <v>417</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -34757,10 +33753,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K504" t="n">
+        <v>446</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -34831,10 +33825,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K505" t="n">
+        <v>447</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -34897,10 +33889,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K506" t="n">
+        <v>448</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -34959,10 +33949,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K507" t="n">
+        <v>449</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -35025,10 +34013,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K508" t="n">
+        <v>450</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -35089,10 +34075,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K509" t="n">
+        <v>417</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -35163,10 +34147,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K510" t="n">
+        <v>451</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -35233,10 +34215,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K511" t="n">
+        <v>452</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -35303,10 +34283,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K512" t="n">
+        <v>453</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -35371,10 +34349,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K513" t="n">
+        <v>454</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -35443,10 +34419,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K514" t="n">
+        <v>455</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -35517,10 +34491,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K515" t="n">
+        <v>417</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -35591,10 +34563,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K516" t="n">
+        <v>456</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -35657,10 +34627,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K517" t="n">
+        <v>457</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -35723,10 +34691,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K518" t="n">
+        <v>458</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -35791,10 +34757,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K519" t="n">
+        <v>459</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -35859,10 +34823,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K520" t="n">
+        <v>460</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -35931,10 +34893,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K521" t="n">
+        <v>461</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -36005,10 +34965,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K522" t="n">
+        <v>462</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -36071,10 +35029,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K523" t="n">
+        <v>463</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -36137,10 +35093,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K524" t="n">
+        <v>464</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -36205,10 +35159,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K525" t="n">
+        <v>465</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -36275,10 +35227,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K526" t="n">
+        <v>466</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -36345,10 +35295,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K527" t="n">
+        <v>467</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -36413,10 +35361,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K528" t="n">
+        <v>468</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -36479,10 +35425,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K529" t="n">
+        <v>469</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -36549,10 +35493,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K530" t="n">
+        <v>470</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -36623,10 +35565,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K531" t="n">
+        <v>471</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -36689,10 +35629,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K532" t="n">
+        <v>472</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -36755,10 +35693,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K533" t="n">
+        <v>473</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -36819,10 +35755,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K534" t="n">
+        <v>474</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -36889,10 +35823,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K535" t="n">
+        <v>475</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -36959,10 +35891,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K536" t="n">
+        <v>476</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -37029,10 +35959,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K537" t="n">
+        <v>477</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -37095,10 +36023,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K538" t="n">
+        <v>478</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -37163,10 +36089,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K539" t="n">
+        <v>479</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -37229,10 +36153,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K540" t="n">
+        <v>480</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -37299,10 +36221,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K541" t="n">
+        <v>481</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -37373,10 +36293,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K542" t="n">
+        <v>482</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -37439,10 +36357,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K543" t="n">
+        <v>483</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -37505,10 +36421,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K544" t="n">
+        <v>484</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -37569,10 +36483,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K545" t="n">
+        <v>485</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -37639,10 +36551,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K546" t="n">
+        <v>486</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -37705,10 +36615,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K547" t="n">
+        <v>487</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -37775,10 +36683,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K548" t="n">
+        <v>481</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -37847,10 +36753,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K549" t="n">
+        <v>488</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -37917,10 +36821,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K550" t="n">
+        <v>481</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -37991,10 +36893,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K551" t="n">
+        <v>489</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -38057,10 +36957,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K552" t="n">
+        <v>490</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -38123,10 +37021,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K553" t="n">
+        <v>491</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -38187,10 +37083,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K554" t="n">
+        <v>492</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -38257,10 +37151,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K555" t="n">
+        <v>493</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -38323,10 +37215,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K556" t="n">
+        <v>494</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -38389,10 +37279,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K557" t="n">
+        <v>495</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -38459,10 +37347,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K558" t="n">
+        <v>481</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -38531,10 +37417,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K559" t="n">
+        <v>496</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -38601,10 +37485,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K560" t="n">
+        <v>481</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -38675,10 +37557,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K561" t="n">
+        <v>497</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -38741,10 +37621,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K562" t="n">
+        <v>498</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -38807,10 +37685,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K563" t="n">
+        <v>499</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -38875,10 +37751,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K564" t="n">
+        <v>500</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -38941,10 +37815,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K565" t="n">
+        <v>501</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -39009,10 +37881,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K566" t="n">
+        <v>502</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -39079,10 +37949,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K567" t="n">
+        <v>481</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -39149,10 +38017,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K568" t="n">
+        <v>503</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -39219,10 +38085,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K569" t="n">
+        <v>504</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -39285,10 +38149,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K570" t="n">
+        <v>505</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -39351,10 +38213,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K571" t="n">
+        <v>506</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -39415,10 +38275,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K572" t="n">
+        <v>507</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -39485,10 +38343,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K573" t="n">
+        <v>508</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -39551,10 +38407,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K574" t="n">
+        <v>509</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -39619,10 +38473,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K575" t="n">
+        <v>510</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -39689,10 +38541,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K576" t="n">
+        <v>511</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -39763,10 +38613,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K577" t="n">
+        <v>481</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -39833,10 +38681,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K578" t="n">
+        <v>512</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -39901,10 +38747,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K579" t="n">
+        <v>513</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -39967,10 +38811,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K580" t="n">
+        <v>514</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -40037,10 +38879,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K581" t="n">
+        <v>515</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -40105,10 +38945,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K582" t="n">
+        <v>516</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -40173,10 +39011,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K583" t="n">
+        <v>517</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -40245,10 +39081,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K584" t="n">
+        <v>518</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -40319,10 +39153,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K585" t="n">
+        <v>519</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -40385,10 +39217,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K586" t="n">
+        <v>520</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -40451,10 +39281,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K587" t="n">
+        <v>521</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -40519,10 +39347,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K588" t="n">
+        <v>522</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -40589,10 +39415,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K589" t="n">
+        <v>523</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -40659,10 +39483,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K590" t="n">
+        <v>524</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -40727,10 +39549,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K591" t="n">
+        <v>525</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -40793,10 +39613,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K592" t="n">
+        <v>526</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -40863,10 +39681,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K593" t="n">
+        <v>527</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -40937,10 +39753,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K594" t="n">
+        <v>528</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -41003,10 +39817,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K595" t="n">
+        <v>529</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -41069,10 +39881,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K596" t="n">
+        <v>530</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -41133,10 +39943,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K597" t="n">
+        <v>531</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -41203,10 +40011,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K598" t="n">
+        <v>532</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -41275,10 +40081,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K599" t="n">
+        <v>533</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -41345,10 +40149,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K600" t="n">
+        <v>534</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -41411,10 +40213,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K601" t="n">
+        <v>535</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -41479,10 +40279,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K602" t="n">
+        <v>536</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -41545,10 +40343,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K603" t="n">
+        <v>537</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -41615,10 +40411,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K604" t="n">
+        <v>538</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -41689,10 +40483,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K605" t="n">
+        <v>539</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -41755,10 +40547,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K606" t="n">
+        <v>540</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -41821,10 +40611,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K607" t="n">
+        <v>541</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -41885,10 +40673,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K608" t="n">
+        <v>542</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -41955,10 +40741,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K609" t="n">
+        <v>543</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -42021,10 +40805,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K610" t="n">
+        <v>544</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -42091,10 +40873,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K611" t="n">
+        <v>538</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -42163,10 +40943,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K612" t="n">
+        <v>545</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -42233,10 +41011,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K613" t="n">
+        <v>538</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -42307,10 +41083,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K614" t="n">
+        <v>546</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -42373,10 +41147,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K615" t="n">
+        <v>547</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -42439,10 +41211,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K616" t="n">
+        <v>548</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -42503,10 +41273,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K617" t="n">
+        <v>549</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -42573,10 +41341,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K618" t="n">
+        <v>550</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -42639,10 +41405,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K619" t="n">
+        <v>551</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -42705,10 +41469,8 @@
           <t>USFL0006</t>
         </is>
       </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K620" t="n">
+        <v>552</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -42775,10 +41537,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K621" t="n">
+        <v>538</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
@@ -42847,10 +41607,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K622" t="n">
+        <v>553</v>
       </c>
       <c r="L622" t="inlineStr">
         <is>
@@ -42917,10 +41675,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K623" t="n">
+        <v>538</v>
       </c>
       <c r="L623" t="inlineStr">
         <is>
@@ -42991,10 +41747,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K624" t="n">
+        <v>554</v>
       </c>
       <c r="L624" t="inlineStr">
         <is>
@@ -43057,10 +41811,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K625" t="n">
+        <v>555</v>
       </c>
       <c r="L625" t="inlineStr">
         <is>
@@ -43123,10 +41875,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K626" t="n">
+        <v>556</v>
       </c>
       <c r="L626" t="inlineStr">
         <is>
@@ -43191,10 +41941,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K627" t="n">
+        <v>557</v>
       </c>
       <c r="L627" t="inlineStr">
         <is>
@@ -43257,10 +42005,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K628" t="n">
+        <v>558</v>
       </c>
       <c r="L628" t="inlineStr">
         <is>
@@ -43327,10 +42073,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K629" t="n">
+        <v>538</v>
       </c>
       <c r="L629" t="inlineStr">
         <is>
@@ -43399,10 +42143,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K630" t="n">
+        <v>559</v>
       </c>
       <c r="L630" t="inlineStr">
         <is>
@@ -43469,10 +42211,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K631" t="n">
+        <v>538</v>
       </c>
       <c r="L631" t="inlineStr">
         <is>
@@ -43539,10 +42279,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K632" t="n">
+        <v>560</v>
       </c>
       <c r="L632" t="inlineStr">
         <is>
@@ -43609,10 +42347,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K633" t="n">
+        <v>561</v>
       </c>
       <c r="L633" t="inlineStr">
         <is>
@@ -43675,10 +42411,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K634" t="n">
+        <v>562</v>
       </c>
       <c r="L634" t="inlineStr">
         <is>
@@ -43741,10 +42475,8 @@
           <t>USFL0009</t>
         </is>
       </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K635" t="n">
+        <v>563</v>
       </c>
       <c r="L635" t="inlineStr">
         <is>
@@ -43805,10 +42537,8 @@
           <t>USFL0020</t>
         </is>
       </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K636" t="n">
+        <v>564</v>
       </c>
       <c r="L636" t="inlineStr">
         <is>
@@ -43875,10 +42605,8 @@
           <t>USFL0002</t>
         </is>
       </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K637" t="n">
+        <v>565</v>
       </c>
       <c r="L637" t="inlineStr">
         <is>
@@ -43941,10 +42669,8 @@
           <t>USFL0027</t>
         </is>
       </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K638" t="n">
+        <v>566</v>
       </c>
       <c r="L638" t="inlineStr">
         <is>
@@ -44009,10 +42735,8 @@
           <t>USFL0010</t>
         </is>
       </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K639" t="n">
+        <v>567</v>
       </c>
       <c r="L639" t="inlineStr">
         <is>
@@ -44083,10 +42807,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K640" t="n">
+        <v>538</v>
       </c>
       <c r="L640" t="inlineStr">
         <is>
@@ -44159,10 +42881,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K641" t="n">
+        <v>568</v>
       </c>
       <c r="L641" t="inlineStr">
         <is>
@@ -44235,10 +42955,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K642" t="n">
+        <v>568</v>
       </c>
       <c r="L642" t="inlineStr">
         <is>
@@ -44311,10 +43029,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K643" t="n">
+        <v>568</v>
       </c>
       <c r="L643" t="inlineStr">
         <is>
@@ -44387,10 +43103,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K644" t="n">
+        <v>568</v>
       </c>
       <c r="L644" t="inlineStr">
         <is>
@@ -44463,10 +43177,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K645" t="n">
+        <v>568</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
@@ -44539,10 +43251,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K646" t="n">
+        <v>568</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
@@ -44617,10 +43327,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K647" t="n">
+        <v>568</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
@@ -44693,10 +43401,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K648" t="n">
+        <v>569</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
@@ -44769,10 +43475,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K649" t="n">
+        <v>569</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
@@ -44845,10 +43549,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K650" t="n">
+        <v>569</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
@@ -44921,10 +43623,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K651" t="n">
+        <v>569</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
@@ -44997,10 +43697,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K652" t="n">
+        <v>569</v>
       </c>
       <c r="L652" t="inlineStr">
         <is>
@@ -45073,10 +43771,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K653" t="n">
+        <v>569</v>
       </c>
       <c r="L653" t="inlineStr">
         <is>
@@ -45149,10 +43845,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K654" t="n">
+        <v>569</v>
       </c>
       <c r="L654" t="inlineStr">
         <is>
@@ -45225,10 +43919,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K655" t="n">
+        <v>569</v>
       </c>
       <c r="L655" t="inlineStr">
         <is>
@@ -45305,10 +43997,8 @@
           <t>USFL0012</t>
         </is>
       </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="K656" t="n">
+        <v>569</v>
       </c>
       <c r="L656" t="inlineStr">
         <is>

--- a/src/excel_downloads/Testflight Calendar with Results FL.xlsx
+++ b/src/excel_downloads/Testflight Calendar with Results FL.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         </is>
       </c>
       <c r="K102" t="n">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="K103" t="n">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         </is>
       </c>
       <c r="K104" t="n">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="K106" t="n">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="K107" t="n">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         </is>
       </c>
       <c r="K110" t="n">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="K111" t="n">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="K112" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="K113" t="n">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="K114" t="n">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="K117" t="n">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="K118" t="n">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="K119" t="n">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="K120" t="n">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="K121" t="n">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="K123" t="n">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="K126" t="n">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="K127" t="n">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="K128" t="n">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         </is>
       </c>
       <c r="K129" t="n">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         </is>
       </c>
       <c r="K130" t="n">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="K131" t="n">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="K132" t="n">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="K133" t="n">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="K134" t="n">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="K135" t="n">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         </is>
       </c>
       <c r="K136" t="n">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="K137" t="n">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         </is>
       </c>
       <c r="K138" t="n">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         </is>
       </c>
       <c r="K140" t="n">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="K141" t="n">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         </is>
       </c>
       <c r="K142" t="n">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         </is>
       </c>
       <c r="K144" t="n">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         </is>
       </c>
       <c r="K145" t="n">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         </is>
       </c>
       <c r="K146" t="n">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         </is>
       </c>
       <c r="K147" t="n">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="K148" t="n">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="K149" t="n">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="K150" t="n">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="K151" t="n">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="K152" t="n">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         </is>
       </c>
       <c r="K153" t="n">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="K154" t="n">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="K155" t="n">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="K156" t="n">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="K157" t="n">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         </is>
       </c>
       <c r="K158" t="n">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="K159" t="n">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         </is>
       </c>
       <c r="K160" t="n">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="K161" t="n">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="K162" t="n">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="K163" t="n">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         </is>
       </c>
       <c r="K164" t="n">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         </is>
       </c>
       <c r="K165" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         </is>
       </c>
       <c r="K166" t="n">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         </is>
       </c>
       <c r="K167" t="n">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="K168" t="n">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         </is>
       </c>
       <c r="K169" t="n">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="K170" t="n">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="K171" t="n">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="K172" t="n">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="K173" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         </is>
       </c>
       <c r="K174" t="n">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         </is>
       </c>
       <c r="K175" t="n">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         </is>
       </c>
       <c r="K176" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="K177" t="n">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         </is>
       </c>
       <c r="K178" t="n">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         </is>
       </c>
       <c r="K179" t="n">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         </is>
       </c>
       <c r="K180" t="n">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="K181" t="n">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         </is>
       </c>
       <c r="K182" t="n">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="K183" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         </is>
       </c>
       <c r="K184" t="n">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         </is>
       </c>
       <c r="K185" t="n">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         </is>
       </c>
       <c r="K186" t="n">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="K187" t="n">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="K188" t="n">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="K189" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         </is>
       </c>
       <c r="K190" t="n">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         </is>
       </c>
       <c r="K191" t="n">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="K192" t="n">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         </is>
       </c>
       <c r="K193" t="n">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         </is>
       </c>
       <c r="K194" t="n">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="K195" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="K196" t="n">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="K197" t="n">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="K198" t="n">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="K199" t="n">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         </is>
       </c>
       <c r="K200" t="n">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="K201" t="n">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         </is>
       </c>
       <c r="K202" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         </is>
       </c>
       <c r="K203" t="n">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="K204" t="n">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         </is>
       </c>
       <c r="K205" t="n">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         </is>
       </c>
       <c r="K206" t="n">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         </is>
       </c>
       <c r="K207" t="n">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         </is>
       </c>
       <c r="K208" t="n">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         </is>
       </c>
       <c r="K209" t="n">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="K210" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         </is>
       </c>
       <c r="K211" t="n">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         </is>
       </c>
       <c r="K212" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         </is>
       </c>
       <c r="K213" t="n">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="K214" t="n">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="K215" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         </is>
       </c>
       <c r="K216" t="n">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         </is>
       </c>
       <c r="K217" t="n">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="K218" t="n">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         </is>
       </c>
       <c r="K219" t="n">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         </is>
       </c>
       <c r="K220" t="n">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         </is>
       </c>
       <c r="K221" t="n">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="K222" t="n">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         </is>
       </c>
       <c r="K223" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="K224" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         </is>
       </c>
       <c r="K225" t="n">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         </is>
       </c>
       <c r="K226" t="n">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         </is>
       </c>
       <c r="K227" t="n">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="K228" t="n">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         </is>
       </c>
       <c r="K229" t="n">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         </is>
       </c>
       <c r="K230" t="n">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         </is>
       </c>
       <c r="K231" t="n">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         </is>
       </c>
       <c r="K232" t="n">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         </is>
       </c>
       <c r="K233" t="n">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         </is>
       </c>
       <c r="K234" t="n">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         </is>
       </c>
       <c r="K235" t="n">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         </is>
       </c>
       <c r="K236" t="n">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         </is>
       </c>
       <c r="K237" t="n">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         </is>
       </c>
       <c r="K238" t="n">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="K239" t="n">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         </is>
       </c>
       <c r="K240" t="n">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         </is>
       </c>
       <c r="K241" t="n">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         </is>
       </c>
       <c r="K242" t="n">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         </is>
       </c>
       <c r="K243" t="n">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         </is>
       </c>
       <c r="K244" t="n">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         </is>
       </c>
       <c r="K245" t="n">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="K246" t="n">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         </is>
       </c>
       <c r="K247" t="n">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         </is>
       </c>
       <c r="K248" t="n">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         </is>
       </c>
       <c r="K249" t="n">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="K250" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         </is>
       </c>
       <c r="K251" t="n">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         </is>
       </c>
       <c r="K252" t="n">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         </is>
       </c>
       <c r="K253" t="n">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         </is>
       </c>
       <c r="K254" t="n">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="K255" t="n">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         </is>
       </c>
       <c r="K256" t="n">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         </is>
       </c>
       <c r="K257" t="n">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="K258" t="n">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         </is>
       </c>
       <c r="K259" t="n">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         </is>
       </c>
       <c r="K260" t="n">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         </is>
       </c>
       <c r="K261" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         </is>
       </c>
       <c r="K262" t="n">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         </is>
       </c>
       <c r="K263" t="n">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         </is>
       </c>
       <c r="K264" t="n">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         </is>
       </c>
       <c r="K265" t="n">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         </is>
       </c>
       <c r="K266" t="n">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         </is>
       </c>
       <c r="K267" t="n">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         </is>
       </c>
       <c r="K268" t="n">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         </is>
       </c>
       <c r="K269" t="n">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         </is>
       </c>
       <c r="K270" t="n">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         </is>
       </c>
       <c r="K271" t="n">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         </is>
       </c>
       <c r="K272" t="n">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         </is>
       </c>
       <c r="K273" t="n">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         </is>
       </c>
       <c r="K274" t="n">
-        <v>243</v>
+        <v>342</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         </is>
       </c>
       <c r="K275" t="n">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         </is>
       </c>
       <c r="K276" t="n">
-        <v>245</v>
+        <v>344</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         </is>
       </c>
       <c r="K277" t="n">
-        <v>246</v>
+        <v>345</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         </is>
       </c>
       <c r="K278" t="n">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         </is>
       </c>
       <c r="K279" t="n">
-        <v>248</v>
+        <v>347</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         </is>
       </c>
       <c r="K280" t="n">
-        <v>249</v>
+        <v>348</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="K281" t="n">
-        <v>250</v>
+        <v>349</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         </is>
       </c>
       <c r="K282" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="K283" t="n">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="K284" t="n">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         </is>
       </c>
       <c r="K285" t="n">
-        <v>254</v>
+        <v>353</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         </is>
       </c>
       <c r="K286" t="n">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         </is>
       </c>
       <c r="K287" t="n">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         </is>
       </c>
       <c r="K288" t="n">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         </is>
       </c>
       <c r="K289" t="n">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         </is>
       </c>
       <c r="K290" t="n">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         </is>
       </c>
       <c r="K291" t="n">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="K292" t="n">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="K293" t="n">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         </is>
       </c>
       <c r="K294" t="n">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         </is>
       </c>
       <c r="K295" t="n">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         </is>
       </c>
       <c r="K296" t="n">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         </is>
       </c>
       <c r="K297" t="n">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         </is>
       </c>
       <c r="K298" t="n">
-        <v>267</v>
+        <v>366</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="K299" t="n">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         </is>
       </c>
       <c r="K300" t="n">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         </is>
       </c>
       <c r="K301" t="n">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="K302" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         </is>
       </c>
       <c r="K303" t="n">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         </is>
       </c>
       <c r="K304" t="n">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         </is>
       </c>
       <c r="K305" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         </is>
       </c>
       <c r="K306" t="n">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         </is>
       </c>
       <c r="K307" t="n">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         </is>
       </c>
       <c r="K308" t="n">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         </is>
       </c>
       <c r="K309" t="n">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         </is>
       </c>
       <c r="K310" t="n">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         </is>
       </c>
       <c r="K311" t="n">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="K312" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         </is>
       </c>
       <c r="K313" t="n">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         </is>
       </c>
       <c r="K314" t="n">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         </is>
       </c>
       <c r="K315" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         </is>
       </c>
       <c r="K316" t="n">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         </is>
       </c>
       <c r="K317" t="n">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         </is>
       </c>
       <c r="K318" t="n">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="K319" t="n">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="K320" t="n">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         </is>
       </c>
       <c r="K321" t="n">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         </is>
       </c>
       <c r="K322" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="K323" t="n">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         </is>
       </c>
       <c r="K324" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         </is>
       </c>
       <c r="K325" t="n">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="K326" t="n">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="K327" t="n">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         </is>
       </c>
       <c r="K328" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         </is>
       </c>
       <c r="K329" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         </is>
       </c>
       <c r="K330" t="n">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         </is>
       </c>
       <c r="K331" t="n">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="K332" t="n">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         </is>
       </c>
       <c r="K333" t="n">
-        <v>296</v>
+        <v>395</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         </is>
       </c>
       <c r="K334" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="K335" t="n">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         </is>
       </c>
       <c r="K336" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         </is>
       </c>
       <c r="K337" t="n">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         </is>
       </c>
       <c r="K338" t="n">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         </is>
       </c>
       <c r="K339" t="n">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="K340" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         </is>
       </c>
       <c r="K341" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         </is>
       </c>
       <c r="K342" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         </is>
       </c>
       <c r="K343" t="n">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         </is>
       </c>
       <c r="K344" t="n">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         </is>
       </c>
       <c r="K345" t="n">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         </is>
       </c>
       <c r="K346" t="n">
-        <v>305</v>
+        <v>404</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         </is>
       </c>
       <c r="K347" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         </is>
       </c>
       <c r="K348" t="n">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         </is>
       </c>
       <c r="K349" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="K350" t="n">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         </is>
       </c>
       <c r="K351" t="n">
-        <v>308</v>
+        <v>407</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         </is>
       </c>
       <c r="K352" t="n">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         </is>
       </c>
       <c r="K353" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         </is>
       </c>
       <c r="K354" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         </is>
       </c>
       <c r="K355" t="n">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         </is>
       </c>
       <c r="K356" t="n">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         </is>
       </c>
       <c r="K357" t="n">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         </is>
       </c>
       <c r="K358" t="n">
-        <v>313</v>
+        <v>412</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         </is>
       </c>
       <c r="K359" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="K360" t="n">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="K361" t="n">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         </is>
       </c>
       <c r="K362" t="n">
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         </is>
       </c>
       <c r="K363" t="n">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         </is>
       </c>
       <c r="K364" t="n">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         </is>
       </c>
       <c r="K365" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="K366" t="n">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         </is>
       </c>
       <c r="K367" t="n">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         </is>
       </c>
       <c r="K368" t="n">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         </is>
       </c>
       <c r="K369" t="n">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="K370" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="K371" t="n">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         </is>
       </c>
       <c r="K372" t="n">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         </is>
       </c>
       <c r="K373" t="n">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         </is>
       </c>
       <c r="K374" t="n">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         </is>
       </c>
       <c r="K375" t="n">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         </is>
       </c>
       <c r="K376" t="n">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         </is>
       </c>
       <c r="K377" t="n">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="K378" t="n">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         </is>
       </c>
       <c r="K379" t="n">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         </is>
       </c>
       <c r="K380" t="n">
-        <v>331</v>
+        <v>430</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         </is>
       </c>
       <c r="K381" t="n">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         </is>
       </c>
       <c r="K382" t="n">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="K383" t="n">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         </is>
       </c>
       <c r="K384" t="n">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         </is>
       </c>
       <c r="K385" t="n">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         </is>
       </c>
       <c r="K386" t="n">
-        <v>336</v>
+        <v>435</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         </is>
       </c>
       <c r="K387" t="n">
-        <v>337</v>
+        <v>436</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         </is>
       </c>
       <c r="K388" t="n">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="K389" t="n">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         </is>
       </c>
       <c r="K390" t="n">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         </is>
       </c>
       <c r="K391" t="n">
-        <v>341</v>
+        <v>440</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         </is>
       </c>
       <c r="K392" t="n">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         </is>
       </c>
       <c r="K393" t="n">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         </is>
       </c>
       <c r="K394" t="n">
-        <v>344</v>
+        <v>443</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         </is>
       </c>
       <c r="K395" t="n">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         </is>
       </c>
       <c r="K396" t="n">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         </is>
       </c>
       <c r="K397" t="n">
-        <v>347</v>
+        <v>446</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         </is>
       </c>
       <c r="K398" t="n">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         </is>
       </c>
       <c r="K399" t="n">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         </is>
       </c>
       <c r="K400" t="n">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         </is>
       </c>
       <c r="K401" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         </is>
       </c>
       <c r="K402" t="n">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         </is>
       </c>
       <c r="K403" t="n">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="K404" t="n">
-        <v>354</v>
+        <v>453</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         </is>
       </c>
       <c r="K405" t="n">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         </is>
       </c>
       <c r="K406" t="n">
-        <v>356</v>
+        <v>455</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         </is>
       </c>
       <c r="K407" t="n">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="K408" t="n">
-        <v>358</v>
+        <v>457</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         </is>
       </c>
       <c r="K409" t="n">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         </is>
       </c>
       <c r="K410" t="n">
-        <v>360</v>
+        <v>459</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         </is>
       </c>
       <c r="K411" t="n">
-        <v>361</v>
+        <v>460</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         </is>
       </c>
       <c r="K412" t="n">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         </is>
       </c>
       <c r="K413" t="n">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         </is>
       </c>
       <c r="K414" t="n">
-        <v>364</v>
+        <v>463</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         </is>
       </c>
       <c r="K415" t="n">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         </is>
       </c>
       <c r="K416" t="n">
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         </is>
       </c>
       <c r="K417" t="n">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         </is>
       </c>
       <c r="K418" t="n">
-        <v>368</v>
+        <v>467</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -28106,7 +28106,7 @@
         </is>
       </c>
       <c r="K419" t="n">
-        <v>369</v>
+        <v>468</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         </is>
       </c>
       <c r="K420" t="n">
-        <v>370</v>
+        <v>469</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         </is>
       </c>
       <c r="K421" t="n">
-        <v>371</v>
+        <v>470</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         </is>
       </c>
       <c r="K422" t="n">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         </is>
       </c>
       <c r="K423" t="n">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         </is>
       </c>
       <c r="K424" t="n">
-        <v>374</v>
+        <v>473</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         </is>
       </c>
       <c r="K425" t="n">
-        <v>375</v>
+        <v>474</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         </is>
       </c>
       <c r="K426" t="n">
-        <v>376</v>
+        <v>475</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         </is>
       </c>
       <c r="K427" t="n">
-        <v>377</v>
+        <v>476</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         </is>
       </c>
       <c r="K428" t="n">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         </is>
       </c>
       <c r="K429" t="n">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         </is>
       </c>
       <c r="K430" t="n">
-        <v>379</v>
+        <v>478</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         </is>
       </c>
       <c r="K431" t="n">
-        <v>380</v>
+        <v>479</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         </is>
       </c>
       <c r="K432" t="n">
-        <v>381</v>
+        <v>480</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         </is>
       </c>
       <c r="K433" t="n">
-        <v>382</v>
+        <v>481</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="K434" t="n">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="K435" t="n">
-        <v>383</v>
+        <v>482</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         </is>
       </c>
       <c r="K436" t="n">
-        <v>384</v>
+        <v>483</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         </is>
       </c>
       <c r="K437" t="n">
-        <v>385</v>
+        <v>484</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         </is>
       </c>
       <c r="K438" t="n">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         </is>
       </c>
       <c r="K439" t="n">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         </is>
       </c>
       <c r="K440" t="n">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         </is>
       </c>
       <c r="K441" t="n">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         </is>
       </c>
       <c r="K442" t="n">
-        <v>390</v>
+        <v>489</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -29714,7 +29714,7 @@
         </is>
       </c>
       <c r="K443" t="n">
-        <v>391</v>
+        <v>490</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         </is>
       </c>
       <c r="K444" t="n">
-        <v>392</v>
+        <v>491</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         </is>
       </c>
       <c r="K445" t="n">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         </is>
       </c>
       <c r="K446" t="n">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         </is>
       </c>
       <c r="K447" t="n">
-        <v>395</v>
+        <v>494</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         </is>
       </c>
       <c r="K448" t="n">
-        <v>396</v>
+        <v>495</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         </is>
       </c>
       <c r="K449" t="n">
-        <v>397</v>
+        <v>496</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         </is>
       </c>
       <c r="K450" t="n">
-        <v>398</v>
+        <v>497</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         </is>
       </c>
       <c r="K451" t="n">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         </is>
       </c>
       <c r="K452" t="n">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         </is>
       </c>
       <c r="K453" t="n">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         </is>
       </c>
       <c r="K454" t="n">
-        <v>402</v>
+        <v>501</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         </is>
       </c>
       <c r="K455" t="n">
-        <v>403</v>
+        <v>502</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         </is>
       </c>
       <c r="K456" t="n">
-        <v>404</v>
+        <v>503</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         </is>
       </c>
       <c r="K457" t="n">
-        <v>405</v>
+        <v>504</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         </is>
       </c>
       <c r="K458" t="n">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         </is>
       </c>
       <c r="K459" t="n">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         </is>
       </c>
       <c r="K460" t="n">
-        <v>408</v>
+        <v>507</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         </is>
       </c>
       <c r="K461" t="n">
-        <v>409</v>
+        <v>508</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         </is>
       </c>
       <c r="K462" t="n">
-        <v>410</v>
+        <v>509</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         </is>
       </c>
       <c r="K463" t="n">
-        <v>411</v>
+        <v>510</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         </is>
       </c>
       <c r="K464" t="n">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         </is>
       </c>
       <c r="K465" t="n">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -31224,7 +31224,7 @@
         </is>
       </c>
       <c r="K466" t="n">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         </is>
       </c>
       <c r="K467" t="n">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         </is>
       </c>
       <c r="K468" t="n">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         </is>
       </c>
       <c r="K469" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         </is>
       </c>
       <c r="K470" t="n">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         </is>
       </c>
       <c r="K471" t="n">
-        <v>419</v>
+        <v>518</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         </is>
       </c>
       <c r="K472" t="n">
-        <v>420</v>
+        <v>519</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -31686,7 +31686,7 @@
         </is>
       </c>
       <c r="K473" t="n">
-        <v>421</v>
+        <v>520</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         </is>
       </c>
       <c r="K474" t="n">
-        <v>422</v>
+        <v>521</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         </is>
       </c>
       <c r="K475" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="K476" t="n">
-        <v>423</v>
+        <v>522</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         </is>
       </c>
       <c r="K477" t="n">
-        <v>424</v>
+        <v>523</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         </is>
       </c>
       <c r="K478" t="n">
-        <v>425</v>
+        <v>524</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         </is>
       </c>
       <c r="K479" t="n">
-        <v>426</v>
+        <v>525</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         </is>
       </c>
       <c r="K480" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         </is>
       </c>
       <c r="K481" t="n">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         </is>
       </c>
       <c r="K482" t="n">
-        <v>428</v>
+        <v>527</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         </is>
       </c>
       <c r="K483" t="n">
-        <v>429</v>
+        <v>528</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         </is>
       </c>
       <c r="K484" t="n">
-        <v>430</v>
+        <v>529</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         </is>
       </c>
       <c r="K485" t="n">
-        <v>431</v>
+        <v>530</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         </is>
       </c>
       <c r="K486" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         </is>
       </c>
       <c r="K487" t="n">
-        <v>432</v>
+        <v>531</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         </is>
       </c>
       <c r="K488" t="n">
-        <v>433</v>
+        <v>532</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         </is>
       </c>
       <c r="K489" t="n">
-        <v>434</v>
+        <v>533</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         </is>
       </c>
       <c r="K490" t="n">
-        <v>435</v>
+        <v>534</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         </is>
       </c>
       <c r="K491" t="n">
-        <v>436</v>
+        <v>535</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         </is>
       </c>
       <c r="K492" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         </is>
       </c>
       <c r="K493" t="n">
-        <v>437</v>
+        <v>536</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         </is>
       </c>
       <c r="K494" t="n">
-        <v>438</v>
+        <v>537</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         </is>
       </c>
       <c r="K495" t="n">
-        <v>439</v>
+        <v>538</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         </is>
       </c>
       <c r="K496" t="n">
-        <v>440</v>
+        <v>539</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         </is>
       </c>
       <c r="K497" t="n">
-        <v>441</v>
+        <v>540</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         </is>
       </c>
       <c r="K498" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         </is>
       </c>
       <c r="K499" t="n">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -33482,7 +33482,7 @@
         </is>
       </c>
       <c r="K500" t="n">
-        <v>443</v>
+        <v>542</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         </is>
       </c>
       <c r="K501" t="n">
-        <v>444</v>
+        <v>543</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         </is>
       </c>
       <c r="K502" t="n">
-        <v>445</v>
+        <v>544</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         </is>
       </c>
       <c r="K503" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         </is>
       </c>
       <c r="K504" t="n">
-        <v>446</v>
+        <v>545</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="K505" t="n">
-        <v>447</v>
+        <v>546</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         </is>
       </c>
       <c r="K506" t="n">
-        <v>448</v>
+        <v>547</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         </is>
       </c>
       <c r="K507" t="n">
-        <v>449</v>
+        <v>548</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         </is>
       </c>
       <c r="K508" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         </is>
       </c>
       <c r="K509" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -34148,7 +34148,7 @@
         </is>
       </c>
       <c r="K510" t="n">
-        <v>451</v>
+        <v>550</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         </is>
       </c>
       <c r="K511" t="n">
-        <v>452</v>
+        <v>551</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         </is>
       </c>
       <c r="K512" t="n">
-        <v>453</v>
+        <v>552</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         </is>
       </c>
       <c r="K513" t="n">
-        <v>454</v>
+        <v>553</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
         </is>
       </c>
       <c r="K514" t="n">
-        <v>455</v>
+        <v>554</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -34492,7 +34492,7 @@
         </is>
       </c>
       <c r="K515" t="n">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         </is>
       </c>
       <c r="K516" t="n">
-        <v>456</v>
+        <v>555</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         </is>
       </c>
       <c r="K517" t="n">
-        <v>457</v>
+        <v>556</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         </is>
       </c>
       <c r="K518" t="n">
-        <v>458</v>
+        <v>557</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         </is>
       </c>
       <c r="K519" t="n">
-        <v>459</v>
+        <v>558</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -34824,7 +34824,7 @@
         </is>
       </c>
       <c r="K520" t="n">
-        <v>460</v>
+        <v>559</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -34894,7 +34894,7 @@
         </is>
       </c>
       <c r="K521" t="n">
-        <v>461</v>
+        <v>560</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         </is>
       </c>
       <c r="K522" t="n">
-        <v>462</v>
+        <v>561</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         </is>
       </c>
       <c r="K523" t="n">
-        <v>463</v>
+        <v>562</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         </is>
       </c>
       <c r="K524" t="n">
-        <v>464</v>
+        <v>563</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         </is>
       </c>
       <c r="K525" t="n">
-        <v>465</v>
+        <v>564</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         </is>
       </c>
       <c r="K526" t="n">
-        <v>466</v>
+        <v>565</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         </is>
       </c>
       <c r="K527" t="n">
-        <v>467</v>
+        <v>566</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -35362,7 +35362,7 @@
         </is>
       </c>
       <c r="K528" t="n">
-        <v>468</v>
+        <v>567</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="K529" t="n">
-        <v>469</v>
+        <v>568</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -35494,7 +35494,7 @@
         </is>
       </c>
       <c r="K530" t="n">
-        <v>470</v>
+        <v>569</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -35566,7 +35566,7 @@
         </is>
       </c>
       <c r="K531" t="n">
-        <v>471</v>
+        <v>570</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         </is>
       </c>
       <c r="K532" t="n">
-        <v>472</v>
+        <v>571</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         </is>
       </c>
       <c r="K533" t="n">
-        <v>473</v>
+        <v>572</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -35756,7 +35756,7 @@
         </is>
       </c>
       <c r="K534" t="n">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         </is>
       </c>
       <c r="K535" t="n">
-        <v>475</v>
+        <v>574</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         </is>
       </c>
       <c r="K536" t="n">
-        <v>476</v>
+        <v>575</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         </is>
       </c>
       <c r="K537" t="n">
-        <v>477</v>
+        <v>576</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         </is>
       </c>
       <c r="K538" t="n">
-        <v>478</v>
+        <v>577</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         </is>
       </c>
       <c r="K539" t="n">
-        <v>479</v>
+        <v>578</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -36154,7 +36154,7 @@
         </is>
       </c>
       <c r="K540" t="n">
-        <v>480</v>
+        <v>579</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -36222,7 +36222,7 @@
         </is>
       </c>
       <c r="K541" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         </is>
       </c>
       <c r="K542" t="n">
-        <v>482</v>
+        <v>581</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -36358,7 +36358,7 @@
         </is>
       </c>
       <c r="K543" t="n">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         </is>
       </c>
       <c r="K544" t="n">
-        <v>484</v>
+        <v>583</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         </is>
       </c>
       <c r="K545" t="n">
-        <v>485</v>
+        <v>584</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         </is>
       </c>
       <c r="K546" t="n">
-        <v>486</v>
+        <v>585</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         </is>
       </c>
       <c r="K547" t="n">
-        <v>487</v>
+        <v>586</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -36684,7 +36684,7 @@
         </is>
       </c>
       <c r="K548" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         </is>
       </c>
       <c r="K549" t="n">
-        <v>488</v>
+        <v>587</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         </is>
       </c>
       <c r="K550" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         </is>
       </c>
       <c r="K551" t="n">
-        <v>489</v>
+        <v>588</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         </is>
       </c>
       <c r="K552" t="n">
-        <v>490</v>
+        <v>589</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         </is>
       </c>
       <c r="K553" t="n">
-        <v>491</v>
+        <v>590</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -37084,7 +37084,7 @@
         </is>
       </c>
       <c r="K554" t="n">
-        <v>492</v>
+        <v>591</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         </is>
       </c>
       <c r="K555" t="n">
-        <v>493</v>
+        <v>592</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         </is>
       </c>
       <c r="K556" t="n">
-        <v>494</v>
+        <v>593</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         </is>
       </c>
       <c r="K557" t="n">
-        <v>495</v>
+        <v>594</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         </is>
       </c>
       <c r="K558" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         </is>
       </c>
       <c r="K559" t="n">
-        <v>496</v>
+        <v>595</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         </is>
       </c>
       <c r="K560" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -37558,7 +37558,7 @@
         </is>
       </c>
       <c r="K561" t="n">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         </is>
       </c>
       <c r="K562" t="n">
-        <v>498</v>
+        <v>597</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         </is>
       </c>
       <c r="K563" t="n">
-        <v>499</v>
+        <v>598</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         </is>
       </c>
       <c r="K564" t="n">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         </is>
       </c>
       <c r="K565" t="n">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         </is>
       </c>
       <c r="K566" t="n">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -37950,7 +37950,7 @@
         </is>
       </c>
       <c r="K567" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         </is>
       </c>
       <c r="K568" t="n">
-        <v>503</v>
+        <v>602</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         </is>
       </c>
       <c r="K569" t="n">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -38150,7 +38150,7 @@
         </is>
       </c>
       <c r="K570" t="n">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         </is>
       </c>
       <c r="K571" t="n">
-        <v>506</v>
+        <v>605</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         </is>
       </c>
       <c r="K572" t="n">
-        <v>507</v>
+        <v>606</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         </is>
       </c>
       <c r="K573" t="n">
-        <v>508</v>
+        <v>607</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         </is>
       </c>
       <c r="K574" t="n">
-        <v>509</v>
+        <v>608</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         </is>
       </c>
       <c r="K575" t="n">
-        <v>510</v>
+        <v>609</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         </is>
       </c>
       <c r="K576" t="n">
-        <v>511</v>
+        <v>610</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         </is>
       </c>
       <c r="K577" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         </is>
       </c>
       <c r="K578" t="n">
-        <v>512</v>
+        <v>611</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -38748,7 +38748,7 @@
         </is>
       </c>
       <c r="K579" t="n">
-        <v>513</v>
+        <v>612</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         </is>
       </c>
       <c r="K580" t="n">
-        <v>514</v>
+        <v>613</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         </is>
       </c>
       <c r="K581" t="n">
-        <v>515</v>
+        <v>614</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="K582" t="n">
-        <v>516</v>
+        <v>615</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
         </is>
       </c>
       <c r="K583" t="n">
-        <v>517</v>
+        <v>616</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         </is>
       </c>
       <c r="K584" t="n">
-        <v>518</v>
+        <v>617</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         </is>
       </c>
       <c r="K585" t="n">
-        <v>519</v>
+        <v>618</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         </is>
       </c>
       <c r="K586" t="n">
-        <v>520</v>
+        <v>619</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         </is>
       </c>
       <c r="K587" t="n">
-        <v>521</v>
+        <v>620</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         </is>
       </c>
       <c r="K588" t="n">
-        <v>522</v>
+        <v>621</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -39416,7 +39416,7 @@
         </is>
       </c>
       <c r="K589" t="n">
-        <v>523</v>
+        <v>622</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         </is>
       </c>
       <c r="K590" t="n">
-        <v>524</v>
+        <v>623</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         </is>
       </c>
       <c r="K591" t="n">
-        <v>525</v>
+        <v>624</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -39614,7 +39614,7 @@
         </is>
       </c>
       <c r="K592" t="n">
-        <v>526</v>
+        <v>625</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         </is>
       </c>
       <c r="K593" t="n">
-        <v>527</v>
+        <v>626</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         </is>
       </c>
       <c r="K594" t="n">
-        <v>528</v>
+        <v>627</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -39818,7 +39818,7 @@
         </is>
       </c>
       <c r="K595" t="n">
-        <v>529</v>
+        <v>628</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         </is>
       </c>
       <c r="K596" t="n">
-        <v>530</v>
+        <v>629</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -39944,7 +39944,7 @@
         </is>
       </c>
       <c r="K597" t="n">
-        <v>531</v>
+        <v>630</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         </is>
       </c>
       <c r="K598" t="n">
-        <v>532</v>
+        <v>631</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         </is>
       </c>
       <c r="K599" t="n">
-        <v>533</v>
+        <v>632</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         </is>
       </c>
       <c r="K600" t="n">
-        <v>534</v>
+        <v>633</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         </is>
       </c>
       <c r="K601" t="n">
-        <v>535</v>
+        <v>634</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         </is>
       </c>
       <c r="K602" t="n">
-        <v>536</v>
+        <v>635</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         </is>
       </c>
       <c r="K603" t="n">
-        <v>537</v>
+        <v>636</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         </is>
       </c>
       <c r="K604" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -40484,7 +40484,7 @@
         </is>
       </c>
       <c r="K605" t="n">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -40548,7 +40548,7 @@
         </is>
       </c>
       <c r="K606" t="n">
-        <v>540</v>
+        <v>639</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -40612,7 +40612,7 @@
         </is>
       </c>
       <c r="K607" t="n">
-        <v>541</v>
+        <v>640</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -40674,7 +40674,7 @@
         </is>
       </c>
       <c r="K608" t="n">
-        <v>542</v>
+        <v>641</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         </is>
       </c>
       <c r="K609" t="n">
-        <v>543</v>
+        <v>642</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         </is>
       </c>
       <c r="K610" t="n">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -40874,7 +40874,7 @@
         </is>
       </c>
       <c r="K611" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         </is>
       </c>
       <c r="K612" t="n">
-        <v>545</v>
+        <v>644</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         </is>
       </c>
       <c r="K613" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         </is>
       </c>
       <c r="K614" t="n">
-        <v>546</v>
+        <v>645</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         </is>
       </c>
       <c r="K615" t="n">
-        <v>547</v>
+        <v>646</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         </is>
       </c>
       <c r="K616" t="n">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         </is>
       </c>
       <c r="K617" t="n">
-        <v>549</v>
+        <v>648</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -41342,7 +41342,7 @@
         </is>
       </c>
       <c r="K618" t="n">
-        <v>550</v>
+        <v>649</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         </is>
       </c>
       <c r="K619" t="n">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -41470,7 +41470,7 @@
         </is>
       </c>
       <c r="K620" t="n">
-        <v>552</v>
+        <v>651</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         </is>
       </c>
       <c r="K621" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
@@ -41608,7 +41608,7 @@
         </is>
       </c>
       <c r="K622" t="n">
-        <v>553</v>
+        <v>652</v>
       </c>
       <c r="L622" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         </is>
       </c>
       <c r="K623" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L623" t="inlineStr">
         <is>
@@ -41748,7 +41748,7 @@
         </is>
       </c>
       <c r="K624" t="n">
-        <v>554</v>
+        <v>653</v>
       </c>
       <c r="L624" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         </is>
       </c>
       <c r="K625" t="n">
-        <v>555</v>
+        <v>654</v>
       </c>
       <c r="L625" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         </is>
       </c>
       <c r="K626" t="n">
-        <v>556</v>
+        <v>655</v>
       </c>
       <c r="L626" t="inlineStr">
         <is>
@@ -41942,7 +41942,7 @@
         </is>
       </c>
       <c r="K627" t="n">
-        <v>557</v>
+        <v>656</v>
       </c>
       <c r="L627" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         </is>
       </c>
       <c r="K628" t="n">
-        <v>558</v>
+        <v>657</v>
       </c>
       <c r="L628" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         </is>
       </c>
       <c r="K629" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L629" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         </is>
       </c>
       <c r="K630" t="n">
-        <v>559</v>
+        <v>658</v>
       </c>
       <c r="L630" t="inlineStr">
         <is>
@@ -42212,7 +42212,7 @@
         </is>
       </c>
       <c r="K631" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L631" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         </is>
       </c>
       <c r="K632" t="n">
-        <v>560</v>
+        <v>659</v>
       </c>
       <c r="L632" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         </is>
       </c>
       <c r="K633" t="n">
-        <v>561</v>
+        <v>660</v>
       </c>
       <c r="L633" t="inlineStr">
         <is>
@@ -42412,7 +42412,7 @@
         </is>
       </c>
       <c r="K634" t="n">
-        <v>562</v>
+        <v>661</v>
       </c>
       <c r="L634" t="inlineStr">
         <is>
@@ -42476,7 +42476,7 @@
         </is>
       </c>
       <c r="K635" t="n">
-        <v>563</v>
+        <v>662</v>
       </c>
       <c r="L635" t="inlineStr">
         <is>
@@ -42538,7 +42538,7 @@
         </is>
       </c>
       <c r="K636" t="n">
-        <v>564</v>
+        <v>663</v>
       </c>
       <c r="L636" t="inlineStr">
         <is>
@@ -42606,7 +42606,7 @@
         </is>
       </c>
       <c r="K637" t="n">
-        <v>565</v>
+        <v>664</v>
       </c>
       <c r="L637" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         </is>
       </c>
       <c r="K638" t="n">
-        <v>566</v>
+        <v>665</v>
       </c>
       <c r="L638" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         </is>
       </c>
       <c r="K639" t="n">
-        <v>567</v>
+        <v>666</v>
       </c>
       <c r="L639" t="inlineStr">
         <is>
@@ -42808,7 +42808,7 @@
         </is>
       </c>
       <c r="K640" t="n">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="L640" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         </is>
       </c>
       <c r="K641" t="n">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="L641" t="inlineStr">
         <is>
@@ -42956,7 +42956,7 @@
         </is>
       </c>
       <c r="K642" t="n">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="L642" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         </is>
       </c>
       <c r="K643" t="n">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="L643" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         </is>
       </c>
       <c r="K644" t="n">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="L644" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         </is>
       </c>
       <c r="K645" t="n">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         </is>
       </c>
       <c r="K646" t="n">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         </is>
       </c>
       <c r="K647" t="n">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
@@ -43402,7 +43402,7 @@
         </is>
       </c>
       <c r="K648" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         </is>
       </c>
       <c r="K649" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
@@ -43550,7 +43550,7 @@
         </is>
       </c>
       <c r="K650" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         </is>
       </c>
       <c r="K651" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         </is>
       </c>
       <c r="K652" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L652" t="inlineStr">
         <is>
@@ -43772,7 +43772,7 @@
         </is>
       </c>
       <c r="K653" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L653" t="inlineStr">
         <is>
@@ -43846,7 +43846,7 @@
         </is>
       </c>
       <c r="K654" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L654" t="inlineStr">
         <is>
@@ -43920,7 +43920,7 @@
         </is>
       </c>
       <c r="K655" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L655" t="inlineStr">
         <is>
@@ -43998,7 +43998,7 @@
         </is>
       </c>
       <c r="K656" t="n">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="L656" t="inlineStr">
         <is>
